--- a/data/income_statement/1digit/size/H_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/H_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>H-Transporting and storage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>H-Transporting and storage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>13219234.05929</v>
+        <v>13834610.71854</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>15583522.26024</v>
+        <v>16173093.02633</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18515682.44632</v>
+        <v>19111926.82223</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>21285954.41045</v>
+        <v>22030711.64658001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>28559114.31067</v>
+        <v>29524759.35273</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31095099.2803</v>
+        <v>32372934.76044</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>32644943.15253</v>
+        <v>34447302.44176</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>33475712.47693</v>
+        <v>34881834.82310999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>40566601.25112</v>
+        <v>41913074.82970001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>58104444.61919</v>
+        <v>59458137.79259001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>67635381.76086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>70063297.80439</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>84147951.233</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>8552032.864490001</v>
+        <v>8763553.66299</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10529878.87592</v>
+        <v>10723417.39942</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>12567679.61651</v>
+        <v>12780757.71082</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>14525087.69403</v>
+        <v>14825484.13791</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>19309283.51144</v>
+        <v>19642873.17886</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>20677579.106</v>
+        <v>21288054.98152</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>22183368.99368</v>
+        <v>22909925.87437</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>23255258.21635</v>
+        <v>23922796.48166</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>28048237.16604</v>
+        <v>28730794.14432</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>36363598.5355</v>
+        <v>36942663.31796</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>41384198.04649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>42573067.96835</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>48968837.705</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4289969.456959999</v>
+        <v>4686761.513799999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4603163.05296</v>
+        <v>4990110.73421</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5428731.72038</v>
+        <v>5802143.939169999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6161546.63286</v>
+        <v>6575851.044070001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8494457.898200002</v>
+        <v>9081438.940879999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9560929.92087</v>
+        <v>10179058.84959</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9585256.51729</v>
+        <v>10578882.05548</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9236751.507450001</v>
+        <v>9899940.680829998</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>11407397.45267</v>
+        <v>12014527.22726</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20277192.57656</v>
+        <v>20988743.86362</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>24658568.40628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25816646.25554</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>33184614.131</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>377231.73784</v>
+        <v>384295.54175</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>450480.33136</v>
+        <v>459564.8927</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>519271.10943</v>
+        <v>529025.17224</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>599320.0835600001</v>
+        <v>629376.4646000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>755372.9010299999</v>
+        <v>800447.2329899998</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>856590.25343</v>
+        <v>905820.9293300001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>876317.6415599999</v>
+        <v>958494.5119100001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>983702.75313</v>
+        <v>1059097.66062</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1110966.63241</v>
+        <v>1167753.45812</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1463653.50713</v>
+        <v>1526730.61101</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1592615.30809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1673583.5805</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1994499.397</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>38611.5913</v>
+        <v>43711.77037999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>49444.81429</v>
+        <v>51274.33433999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>44719.84668</v>
+        <v>45466.21406</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>46129.56549</v>
+        <v>49779.03698</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>85140.83527</v>
+        <v>89087.99045999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>113593.25145</v>
+        <v>114505.00276</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>128805.07103</v>
+        <v>160266.898</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>119354.11808</v>
+        <v>138186.71586</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>460773.6681300001</v>
+        <v>458645.0194299999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>264301.18836</v>
+        <v>275577.30239</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>291727.83733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>306121.70669</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1362792.639</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>26407.08995</v>
+        <v>30461.97421</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>35013.56832</v>
+        <v>36229.83098</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21930.2737</v>
+        <v>24170.80276</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>28850.28325</v>
+        <v>30489.20230999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>69960.82016</v>
+        <v>71998.04115</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>78977.37922</v>
+        <v>79652.39714000002</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>113051.29221</v>
+        <v>139586.42211</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>98795.51257999998</v>
+        <v>112340.42723</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>443232.3975500001</v>
+        <v>437730.7671199999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>196130.36005</v>
+        <v>201910.13748</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>223331.0434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>236669.74584</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1040367.475</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>8057.2853</v>
+        <v>8327.957539999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9310.547060000001</v>
+        <v>9698.54255</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>13493.6583</v>
+        <v>13523.73314</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>10515.33783</v>
+        <v>10629.92111</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6950.483449999999</v>
+        <v>8031.496679999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7137.679409999999</v>
+        <v>7586.117929999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8175.11868</v>
+        <v>9397.95917</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8747.430100000001</v>
+        <v>10331.26018</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7967.317150000001</v>
+        <v>10389.9554</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>34068.40441</v>
+        <v>33926.75994</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>32178.85316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>32549.17219</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>34730.951</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4147.21605</v>
+        <v>4921.83863</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5120.69891</v>
+        <v>5345.96081</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>9295.914680000002</v>
+        <v>7771.67816</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6763.94441</v>
+        <v>8659.913560000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8229.531660000001</v>
+        <v>9058.45263</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>27478.19282</v>
+        <v>27266.48769</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7578.660139999999</v>
+        <v>11282.51672</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>11811.1754</v>
+        <v>15515.02845</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9573.95343</v>
+        <v>10524.29691</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>34102.4239</v>
+        <v>39740.40497</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>36217.94077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36902.78866000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>287694.213</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>13180622.46799</v>
+        <v>13790898.94816</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>15534077.44595</v>
+        <v>16121818.69199</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>18470962.59964</v>
+        <v>19066460.60817</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>21239824.84496</v>
+        <v>21980932.6096</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>28473973.4754</v>
+        <v>29435671.36227</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>30981506.02885</v>
+        <v>32258429.75768</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>32516138.0815</v>
+        <v>34287035.54376</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>33356358.35885</v>
+        <v>34743648.10725</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>40105827.58299001</v>
+        <v>41454429.81027</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>57840143.43083</v>
+        <v>59182560.49020001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>67343653.92353001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>69757176.0977</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>82785158.594</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>11274470.36052</v>
+        <v>11913621.51843</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>13271757.25151</v>
+        <v>13859692.79686</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>15731702.73996</v>
+        <v>16298712.32735</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>18174007.6839</v>
+        <v>18830520.9506</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>24301891.3896</v>
+        <v>25197451.22776</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>26508493.81842</v>
+        <v>27663424.75001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>27737620.45175</v>
+        <v>29251704.02078</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>28599318.35171</v>
+        <v>29792092.78038</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>34603841.16842</v>
+        <v>35727343.73311</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>50356430.43807001</v>
+        <v>51306136.65594</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>59279663.62723999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>61510137.22491001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>73149846.461</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>138285.45139</v>
+        <v>152593.79787</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>164174.23435</v>
+        <v>170320.04817</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>170075.77588</v>
+        <v>180646.17724</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>180559.72319</v>
+        <v>183344.43075</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>260885.8336</v>
+        <v>265571.18204</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>333318.17923</v>
+        <v>351400.05647</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>268597.75165</v>
+        <v>300432.01228</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>361656.06797</v>
+        <v>388815.0464299999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>443792.52894</v>
+        <v>469109.35389</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>594082.9720299999</v>
+        <v>594350.31927</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>771697.4461299999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>823181.8198200001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>837701.7560000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1844273.34752</v>
+        <v>1863312.66911</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1943896.57662</v>
+        <v>1960400.63803</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2213816.01631</v>
+        <v>2240990.73712</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2438870.55871</v>
+        <v>2466826.10823</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3277924.94174</v>
+        <v>3330577.62133</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3464916.18372</v>
+        <v>3575545.19548</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4302609.335360001</v>
+        <v>4490109.61727</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4575629.66591</v>
+        <v>4717493.77578</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6396155.409049999</v>
+        <v>6533410.65783</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>6688700.38286</v>
+        <v>6772712.89768</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>9310823.185850002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9693997.20011</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>13731439.171</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9262641.739089999</v>
+        <v>9868090.146540001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>11112394.8952</v>
+        <v>11679740.75043</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>13294678.56216</v>
+        <v>13826486.94585</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>15491074.39614</v>
+        <v>16109215.48199</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>20649238.54676</v>
+        <v>21481722.65421</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>22516472.97754</v>
+        <v>23528724.8011</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>22898861.67749</v>
+        <v>24173749.20505</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>23343413.93985</v>
+        <v>24354324.71163</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>27298729.46755</v>
+        <v>28256515.29497</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>42548019.06603</v>
+        <v>43401107.20243001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>48594531.63131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>50145587.81262999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>57598284.673</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>29269.82252</v>
+        <v>29624.90491</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>51291.54534</v>
+        <v>49231.36023</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>53132.38561</v>
+        <v>50588.46714</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>63503.00586</v>
+        <v>71134.92963</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>113842.0675</v>
+        <v>119579.77018</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>193786.47793</v>
+        <v>207754.69696</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>267551.68725</v>
+        <v>287413.18618</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>318618.67798</v>
+        <v>331459.24654</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>465163.76288</v>
+        <v>468308.42642</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>525628.01715</v>
+        <v>537966.23656</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>602611.3639499999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>847370.39235</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>982420.861</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1906152.10747</v>
+        <v>1877277.42973</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2262320.19444</v>
+        <v>2262125.89513</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2739259.85968</v>
+        <v>2767748.28082</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3065817.16106</v>
+        <v>3150411.659</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4172082.0858</v>
+        <v>4238220.13451</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4473012.21043</v>
+        <v>4595005.00767</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4778517.62975</v>
+        <v>5035331.522980001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4757040.007139999</v>
+        <v>4951555.326870001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5501986.414570001</v>
+        <v>5727086.07716</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7483712.992759999</v>
+        <v>7876423.83426</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8063990.29629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8247038.872790001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9635312.132999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1687933.10145</v>
+        <v>1806089.61483</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1881866.74417</v>
+        <v>1982121.35884</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2313717.495649999</v>
+        <v>2419257.53073</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2673557.2698</v>
+        <v>2856352.96925</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3554264.16449</v>
+        <v>3688679.75712</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3823065.93703</v>
+        <v>4011832.158920001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4096705.945900001</v>
+        <v>4380466.087739999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4310614.18276</v>
+        <v>4479624.64272</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4739860.88782</v>
+        <v>4972146.09747</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>6046337.48889</v>
+        <v>6174806.247649999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6759229.75992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6966255.05437</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7791447.083</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3989.69484</v>
+        <v>5685.09852</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1951.7702</v>
+        <v>1901.30632</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>924.84659</v>
+        <v>980.99581</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2587.71875</v>
+        <v>2490.22369</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6195.5623</v>
+        <v>6172.893140000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3595.70402</v>
+        <v>3575.22439</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6513.6748</v>
+        <v>5834.50654</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>11725.81031</v>
+        <v>11522.39881</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5983.98796</v>
+        <v>5348.922300000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>91558.24848000001</v>
+        <v>91306.85926000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1001.79161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4485.00971</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>40416.361</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>245367.74239</v>
+        <v>252046.65633</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>266458.43365</v>
+        <v>271024.83357</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>318706.68662</v>
+        <v>327083.20046</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>367825.00627</v>
+        <v>390904.91817</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>465162.31407</v>
+        <v>470682.32283</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>509459.28718</v>
+        <v>518067.69733</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>567285.31032</v>
+        <v>588971.57607</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>586846.6711</v>
+        <v>606898.97987</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>582035.01008</v>
+        <v>603939.7739800001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>801412.7126800001</v>
+        <v>819842.5251900001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1038536.39331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1066029.52619</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1213490.426</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1438575.66422</v>
+        <v>1548357.85998</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1613456.54032</v>
+        <v>1709195.21895</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1994085.96244</v>
+        <v>2091193.33446</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2303144.54478</v>
+        <v>2462957.82739</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3082906.28812</v>
+        <v>3211824.54115</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3310010.94583</v>
+        <v>3490189.2372</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3522906.96078</v>
+        <v>3785660.00513</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3712041.701349999</v>
+        <v>3861203.26404</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4151841.88978</v>
+        <v>4362857.401190001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5153366.52773</v>
+        <v>5263656.8632</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5719691.575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5895740.518470001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6537540.296</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>218219.00602</v>
+        <v>71187.81490000003</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>380453.45027</v>
+        <v>280004.53629</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>425542.3640300001</v>
+        <v>348490.75009</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>392259.8912599999</v>
+        <v>294058.68975</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>617817.9213099999</v>
+        <v>549540.37739</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>649946.2733999999</v>
+        <v>583172.84875</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>681811.68385</v>
+        <v>654865.43524</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>446425.8243800001</v>
+        <v>471930.68415</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>762125.52675</v>
+        <v>754939.9796899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1437375.50387</v>
+        <v>1701617.58661</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1304760.53637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1280783.81842</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1843865.05</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>247610.91872</v>
+        <v>538560.9562200001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>241797.53299</v>
+        <v>523332.0969300001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>300885.67869</v>
+        <v>582256.4511199999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>283910.05819</v>
+        <v>547569.23945</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>562805.90289</v>
+        <v>962482.55725</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>502263.14243</v>
+        <v>1002768.88026</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>830238.4542299999</v>
+        <v>4341478.39046</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>659537.65362</v>
+        <v>1312425.08019</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>613957.6594300001</v>
+        <v>1401855.72752</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3387870.89902</v>
+        <v>5693414.39898</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2061912.67321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2828750.724330001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6188337.183</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>10725.12903</v>
+        <v>16219.45581</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2771.8366</v>
+        <v>28054.82758</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3855.15428</v>
+        <v>27034.18453</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5751.07016</v>
+        <v>35603.98927</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>11654.52944</v>
+        <v>35757.45783</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>12828.53513</v>
+        <v>128764.33345</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>13742.67842</v>
+        <v>90279.82291</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>12078.72949</v>
+        <v>57543.6198</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>8643.391669999999</v>
+        <v>106759.25526</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>68528.11740999999</v>
+        <v>80974.43921</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>79664.25293999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>176469.26716</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>69520.012</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>500.23027</v>
+        <v>1104.2316</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1174.29079</v>
+        <v>4722.323100000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1998.62504</v>
+        <v>23040.73971</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1214.58484</v>
+        <v>27276.89073</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2796.45352</v>
+        <v>51708.24289</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4057.8145</v>
+        <v>6773.261320000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6398.161369999999</v>
+        <v>9172.549640000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3625.17726</v>
+        <v>5377.78758</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4438.29753</v>
+        <v>26828.57356</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>7515.24359</v>
+        <v>241581.28633</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>8802.995579999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>64851.93276</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>110354.695</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>21744.97788</v>
+        <v>49259.50414</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>18822.07925</v>
+        <v>45264.72512</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>19642.78286</v>
+        <v>40583.2629</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>25071.94077</v>
+        <v>51526.94956999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>30133.63688</v>
+        <v>68006.14089</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>33780.79637</v>
+        <v>73424.31678000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>45886.57379</v>
+        <v>120418.08401</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>40322.98822</v>
+        <v>98793.64051000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>43726.03959</v>
+        <v>146309.7801</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>144775.40294</v>
+        <v>239001.50027</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>161464.12178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>244024.82471</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>236514.944</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>12589.79394</v>
+        <v>16841.10788</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>13015.45711</v>
+        <v>16187.85691</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>8478.13312</v>
+        <v>8134.43647</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>14474.37607</v>
+        <v>14165.78926</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>15830.89069</v>
+        <v>15128.54592</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>19000.77479</v>
+        <v>17743.59226</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>19123.25059</v>
+        <v>51778.89187</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>12763.35699</v>
+        <v>14820.11621</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>13699.05616</v>
+        <v>16973.15273</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>41761.35181</v>
+        <v>43415.69584</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>31406.43887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>33288.71588</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>35853.962</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2248.62172</v>
+        <v>2360.87166</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2438.88955</v>
+        <v>2326.79341</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2274.55537</v>
+        <v>2505.46623</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>3433.70822</v>
+        <v>4120.15301</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7078.92315</v>
+        <v>7815.61327</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6333.20012</v>
+        <v>8939.808859999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9116.257629999998</v>
+        <v>5598.114729999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5970.216380000001</v>
+        <v>5489.42076</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4144.15324</v>
+        <v>6729.326639999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>8786.677149999998</v>
+        <v>9562.620780000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>12235.96439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17852.59724</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>14364.754</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4787.764970000001</v>
+        <v>5089.789249999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4254.1883</v>
+        <v>3932.43307</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4468.094539999999</v>
+        <v>3042.89303</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3161.27204</v>
+        <v>3360.15346</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3594.52269</v>
+        <v>4201.955</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5227.61814</v>
+        <v>8173.697230000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4072.484399999999</v>
+        <v>6368.18189</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2533.208810000001</v>
+        <v>3796.407</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5628.828050000001</v>
+        <v>8207.11975</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8183.0336</v>
+        <v>15460.50188</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8528.516479999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8140.638889999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>18516.011</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>143605.71726</v>
+        <v>382832.21816</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>140739.53609</v>
+        <v>354009.9924299999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>188142.45258</v>
+        <v>388508.82927</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>140577.53166</v>
+        <v>304713.76695</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>369648.67706</v>
+        <v>632951.3012999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>292728.1611</v>
+        <v>594850.8579600001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>575501.4162199999</v>
+        <v>3879799.10329</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>429302.33767</v>
+        <v>948678.6225000002</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>378900.60527</v>
+        <v>880326.0864699999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2707469.26662</v>
+        <v>4614061.37605</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1243855.93217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1756464.19037</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4969322.763</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>139.78147</v>
+        <v>161.18333</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>613.3505600000001</v>
+        <v>612.9028400000001</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>297.58665</v>
+        <v>297.4679</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>436.13436</v>
+        <v>1385.22242</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>185.92258</v>
+        <v>133.62033</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>54.29879</v>
+        <v>674.51521</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>178.55996</v>
+        <v>1050.8547</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>167.47601</v>
+        <v>689.51016</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>75.47284000000001</v>
+        <v>68.47203000000002</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>235.62218</v>
+        <v>235.61684</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2653.58357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>853.00821</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>263.965</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>461.62614</v>
+        <v>426.6053</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>753.55219</v>
+        <v>742.46358</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>782.84586</v>
+        <v>778.84941</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>348.74639</v>
+        <v>329.32417</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>543.20701</v>
+        <v>539.0314499999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>314.37151</v>
+        <v>293.05754</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>1176.71231</v>
+        <v>1093.00635</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1315.57831</v>
+        <v>1178.18366</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>654.7086999999999</v>
+        <v>652.5087</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>670.13528</v>
+        <v>659.8191699999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1590.95068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1566.47138</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>914.975</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>50807.27604</v>
+        <v>64265.98909</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>57214.35255</v>
+        <v>67477.77889</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>70945.44839000002</v>
+        <v>88330.32167</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>89440.69368000001</v>
+        <v>105087.00061</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>121339.13987</v>
+        <v>146240.64837</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>127937.57198</v>
+        <v>163131.43965</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>155042.35954</v>
+        <v>175919.78107</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>151458.58448</v>
+        <v>176057.77201</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>154047.10638</v>
+        <v>209001.45228</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>399946.04844</v>
+        <v>448461.54261</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>511709.91675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>525239.0777299999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>732711.102</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>205888.01361</v>
+        <v>398643.9861400001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>197183.1576100001</v>
+        <v>371180.73547</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>293218.53898</v>
+        <v>489577.5878</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>255152.70928</v>
+        <v>388937.75871</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>536584.82998</v>
+        <v>918255.34767</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>404162.18506</v>
+        <v>734291.19022</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>714727.3435500001</v>
+        <v>4170855.98</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>542192.8987200001</v>
+        <v>1195770.74517</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>544193.64938</v>
+        <v>1031968.49206</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3203339.25389</v>
+        <v>5147986.365710001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1687369.7376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2191228.62578</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5033352.52</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>18585.1981</v>
+        <v>19359.61419</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>17324.56381</v>
+        <v>18106.86811</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>14933.34705</v>
+        <v>16380.73237</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>15368.12905</v>
+        <v>16048.10807</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16318.21549</v>
+        <v>17440.70742</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>16740.38894</v>
+        <v>19024.27015</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>13227.24943</v>
+        <v>16012.04222</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>17141.05956</v>
+        <v>18557.73915</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>14649.83219</v>
+        <v>16764.99698</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>32905.63499</v>
+        <v>32819.01368</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>20965.93893</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>20773.80428</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>35362.769</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>11708.73747</v>
+        <v>11823.45528</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8343.32278</v>
+        <v>8570.648590000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7843.95422</v>
+        <v>8426.196880000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12935.06654</v>
+        <v>14766.10188</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>25294.0883</v>
+        <v>25481.357</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>20795.28552</v>
+        <v>22062.64437</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>18517.95612</v>
+        <v>21250.78145</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>21211.31856</v>
+        <v>21314.42811</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>35591.94405</v>
+        <v>23975.72159</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>45469.19429</v>
+        <v>59259.16909</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>71564.92667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>72715.11378000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>46156.369</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1480.25021</v>
+        <v>1909.37571</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>3997.3884</v>
+        <v>1018.01259</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1523.08023</v>
+        <v>2247.67361</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2276.56676</v>
+        <v>4534.439459999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3933.27208</v>
+        <v>10951.24175</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>4661.283489999999</v>
+        <v>1374.94327</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1562.33728</v>
+        <v>4993.967469999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1021.03381</v>
+        <v>7518.737639999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7786.983500000001</v>
+        <v>2225.14626</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1553.5971</v>
+        <v>2966.26846</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2285.64973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1497.23453</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3307.029</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>147967.9652</v>
+        <v>332003.53879</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>127959.55923</v>
+        <v>301788.48933</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>217920.97584</v>
+        <v>401692.2739799999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>123914.8167</v>
+        <v>243020.89892</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>398892.65528</v>
+        <v>745226.5451100001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>285029.51341</v>
+        <v>601732.5718800001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>585345.0244199999</v>
+        <v>4008500.15787</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>430470.9664</v>
+        <v>1037272.88394</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>412311.72543</v>
+        <v>894704.68321</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2895609.60187</v>
+        <v>4832151.21868</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1281355.75841</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1773490.53921</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4484776.247</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>494.50381</v>
+        <v>626.8128399999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>646.6408299999999</v>
+        <v>646.1056299999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>649.38788</v>
+        <v>751.13105</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>922.80501</v>
+        <v>1651.74324</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2830.75622</v>
+        <v>2997.60672</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3550.17353</v>
+        <v>3662.87808</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1675.60585</v>
+        <v>2009.04092</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1090.47226</v>
+        <v>963.43611</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>743.5673</v>
+        <v>745.71853</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>3562.872109999999</v>
+        <v>2473.46235</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>3302.66767</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2787.49009</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2307.759</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>210.57432</v>
+        <v>210.53167</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>269.47784</v>
+        <v>231.13016</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>590.50602</v>
+        <v>41.05357</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>345.87813</v>
+        <v>345.75435</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>70.47333</v>
+        <v>87.89855</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>222.65234</v>
+        <v>219.62234</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>165.62176</v>
+        <v>165.62164</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>274.71619</v>
+        <v>183.46774</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.5858300000000001</v>
+        <v>0.5857899999999999</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>429.1223</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>9.759</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>25440.7845</v>
+        <v>32710.65766</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>38642.20472</v>
+        <v>40819.48106000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>49757.28774</v>
+        <v>60038.52634</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>99389.44709</v>
+        <v>108570.71279</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>89245.36928</v>
+        <v>116069.99112</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>73162.88782999999</v>
+        <v>86214.26013</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>94233.54869000001</v>
+        <v>117924.36843</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>70983.33194000002</v>
+        <v>109960.05248</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>73109.59686000002</v>
+        <v>93552.22547999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>224237.7677</v>
+        <v>218316.64766</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>307465.67389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>319535.3215899999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>461432.588</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>197921.5864</v>
+        <v>275483.2609</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>161955.55358</v>
+        <v>244256.46379</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>203831.81302</v>
+        <v>324511.36189</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>256119.57553</v>
+        <v>375701.90545</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>367039.50492</v>
+        <v>497074.3108600001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>400782.8862499999</v>
+        <v>528502.3540699999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>481342.28783</v>
+        <v>718973.27079</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>482949.85847</v>
+        <v>729350.11711</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>531545.45192</v>
+        <v>788954.5465599999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1101047.13871</v>
+        <v>1767791.98019</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1085626.68699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1443323.68688</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1909925.997</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>180988.28166</v>
+        <v>227414.05864</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>147887.81731</v>
+        <v>205728.51416</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>188137.81613</v>
+        <v>259241.91115</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>238156.8428</v>
+        <v>294439.85474</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>332527.23361</v>
+        <v>405651.00066</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>365918.29611</v>
+        <v>446728.4739099999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>444391.66429</v>
+        <v>611535.1952600001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>437891.21948</v>
+        <v>635436.1716199999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>485936.42057</v>
+        <v>675812.6217100001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>987615.5839099999</v>
+        <v>1392276.23987</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>983296.9584799998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1242702.62428</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1340055.132</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>16933.30474</v>
+        <v>48069.20226000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14067.73627</v>
+        <v>38527.94963</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>15693.99689</v>
+        <v>65269.45073999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>17962.73273</v>
+        <v>81262.05071</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>34512.27131</v>
+        <v>91423.31020000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>34864.59014</v>
+        <v>81773.88016</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>36950.62354000001</v>
+        <v>107438.07553</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>45058.63899</v>
+        <v>93913.94549000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>45609.03135</v>
+        <v>113141.92485</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>113431.5548</v>
+        <v>375515.74032</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>102329.72851</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>200621.0626</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>569870.865</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>62020.32473</v>
+        <v>-64378.47592</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>263112.27207</v>
+        <v>187899.43396</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>229377.69072</v>
+        <v>116658.25152</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>164897.66464</v>
+        <v>76988.26504000004</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>276999.4893</v>
+        <v>96693.27610999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>347264.34452</v>
+        <v>323148.18472</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>315980.5067</v>
+        <v>106514.57491</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>80820.72081000001</v>
+        <v>-140765.09794</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>300344.08488</v>
+        <v>335872.66859</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>520860.0102899999</v>
+        <v>479253.63969</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>593676.78499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>474982.2300899999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1088923.716</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>163196.97196</v>
+        <v>193175.64862</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>215689.8231</v>
+        <v>283790.95294</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>235167.12412</v>
+        <v>296686.3017</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>300469.5990399999</v>
+        <v>416910.50702</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>366980.10696</v>
+        <v>468495.11717</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>442869.69218</v>
+        <v>628714.7195199999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>534555.40736</v>
+        <v>808531.47185</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>584479.09378</v>
+        <v>692101.6427800001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>601170.32849</v>
+        <v>909698.63451</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1267242.94228</v>
+        <v>1328673.44816</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1111891.7839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1149797.9034</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1475463.198</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1943.60563</v>
+        <v>2422.93207</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4912.18992</v>
+        <v>3809.93751</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1605.31195</v>
+        <v>20578.49538</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6022.22598</v>
+        <v>4838.260449999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7812.62315</v>
+        <v>9204.549199999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>5029.01265</v>
+        <v>6133.492279999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6014.537350000001</v>
+        <v>7189.898939999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6125.201150000001</v>
+        <v>3833.90807</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>7196.453120000001</v>
+        <v>8191.02252</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>19852.23131</v>
+        <v>26091.05418</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13503.1719</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>10473.70172</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>79391.40300000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>161253.36633</v>
+        <v>190752.71655</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>210777.63318</v>
+        <v>279981.01543</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>233561.81217</v>
+        <v>276107.8063199999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>294447.37306</v>
+        <v>412072.24657</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>359167.4838100001</v>
+        <v>459290.56797</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>437840.6795299999</v>
+        <v>622581.2272400002</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>528540.8700100001</v>
+        <v>801341.57291</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>578353.89263</v>
+        <v>688267.73471</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>593973.87537</v>
+        <v>901507.61199</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1247390.71097</v>
+        <v>1302582.39398</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1098388.612</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1139324.20168</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1396071.795</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>135309.34808</v>
+        <v>144610.30089</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>180652.09924</v>
+        <v>279792.9956500001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>804821.78843</v>
+        <v>868673.3663000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>259108.7825199999</v>
+        <v>353011.9305</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>260170.13367</v>
+        <v>325373.8921199999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>516941.3356400001</v>
+        <v>660021.32862</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>372868.2189300001</v>
+        <v>479538.91091</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>816655.02478</v>
+        <v>920727.92346</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>415141.7031399999</v>
+        <v>518838.5800900001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1141903.00485</v>
+        <v>1402567.51073</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>583612.2854299999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>723191.30444</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>930368.8419999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4475.53134</v>
+        <v>11916.90517</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2619.94443</v>
+        <v>5120.02368</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6831.142169999999</v>
+        <v>21021.26923</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3553.81243</v>
+        <v>5277.4552</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>7653.13199</v>
+        <v>17252.51329</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7553.7662</v>
+        <v>17084.66099</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8084.192649999999</v>
+        <v>20163.84424</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8572.243559999999</v>
+        <v>24230.47518</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7106.60148</v>
+        <v>22857.53415</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8694.058690000002</v>
+        <v>19761.69332</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8136.18628</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18037.34181</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>31516.304</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>8590.871630000001</v>
+        <v>5518.199509999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>10519.49245</v>
+        <v>9930.120859999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7483.10747</v>
+        <v>17316.65807</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>14021.84639</v>
+        <v>12081.82669</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8422.17337</v>
+        <v>18331.58481</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8354.362060000001</v>
+        <v>10724.64003</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7870.35359</v>
+        <v>9715.076669999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>15660.48323</v>
+        <v>16729.52242</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>13249.16719</v>
+        <v>15992.84551</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>23722.38005</v>
+        <v>63681.17657999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19005.89108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>24290.44437</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>79399.052</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>122242.94511</v>
+        <v>127175.19621</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>167512.66236</v>
+        <v>264742.85111</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>790507.5387899999</v>
+        <v>830335.4390000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>241533.1237</v>
+        <v>335652.64861</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>244094.82831</v>
+        <v>289789.79402</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>501033.20738</v>
+        <v>632212.0276</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>356913.67269</v>
+        <v>449659.99</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>792422.29799</v>
+        <v>879767.92586</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>394785.93447</v>
+        <v>479988.20043</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1109486.56611</v>
+        <v>1319124.64083</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>556470.2080700001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>680863.5182599999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>819453.486</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>89907.94860999999</v>
+        <v>-15813.12819000002</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>298149.99593</v>
+        <v>191897.39125</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-340276.97359</v>
+        <v>-455328.81308</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>206258.48116</v>
+        <v>140886.84156</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>383809.46259</v>
+        <v>239814.50116</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>273192.7010599999</v>
+        <v>291841.5756200001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>477667.69513</v>
+        <v>435507.13585</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-151355.21019</v>
+        <v>-369391.37862</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>486372.71023</v>
+        <v>726732.72301</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>646199.9477199999</v>
+        <v>405359.57712</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1121956.28346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>901588.8290499998</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1634018.072</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>62688.76276</v>
+        <v>67012.34718</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>82440.83327999999</v>
+        <v>85314.95478999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>97094.32416000002</v>
+        <v>99185.35732000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>102652.96379</v>
+        <v>113541.05811</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>138734.22874</v>
+        <v>145133.83057</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>143169.30211</v>
+        <v>156146.26288</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>163910.18298</v>
+        <v>180601.38361</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>162056.96937</v>
+        <v>187401.94726</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>180987.6379</v>
+        <v>210070.67465</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>326094.05554</v>
+        <v>351197.68134</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>352340.65118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>378835.0207299999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>516446.144</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>27219.18584999999</v>
+        <v>-82825.47536999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>215709.16265</v>
+        <v>106582.43646</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-437371.29775</v>
+        <v>-554514.1703999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>103605.51737</v>
+        <v>27345.78344999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>245075.23385</v>
+        <v>94680.67059000005</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>130023.39895</v>
+        <v>135695.31274</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>313757.51215</v>
+        <v>254905.75224</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-313412.17956</v>
+        <v>-556793.32588</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>305385.07233</v>
+        <v>516662.04836</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>320105.89218</v>
+        <v>54161.89577999995</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>769615.63228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>522753.80832</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1117571.928</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>6114</v>
+        <v>5559</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6768</v>
+        <v>6073</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7574</v>
+        <v>6794</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>8502</v>
+        <v>7594</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9705</v>
+        <v>8463</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>10429</v>
+        <v>9085</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>11100</v>
+        <v>9547</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>11667</v>
+        <v>9642</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>12296</v>
+        <v>10071</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9296</v>
+        <v>8293</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8714</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>